--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value941.xlsx
@@ -354,7 +354,7 @@
         <v>1.928701256571833</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.237348999355352</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value941.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281511394477341</v>
+        <v>1.022877812385559</v>
       </c>
       <c r="B1">
-        <v>1.928701256571833</v>
+        <v>1.539020776748657</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.237348999355352</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8905481780831781</v>
+        <v>0.3124167025089264</v>
       </c>
     </row>
   </sheetData>
